--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z004TFNB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2621A3C-3754-4EA2-88E6-57073C1F4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D1826-6951-4BCF-B599-3B0CCA4DD9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1272" yWindow="720" windowWidth="17304" windowHeight="8940" xr2:uid="{5F961C43-2FF7-452B-8CE2-25F3FE3ECFB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428DEDBE-EAFD-4726-A776-5506CF68D199}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,9 +433,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
